--- a/40_prepare_exam/S3650_Checklist_Eksamen.xlsx
+++ b/40_prepare_exam/S3650_Checklist_Eksamen.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ulsc\OneDrive - AspIT\Uli\Python\AspIT_Python\40_prepare_exam\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="8_{214E5BA1-2561-45AA-B68B-4A449B158A0E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{34A7E7DD-DBB3-434D-B688-F1F5295DBE16}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{7625A02B-A383-41B2-BADB-A96D07FF88A4}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="S2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725" calcOnSave="0" concurrentCalc="0"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t>Database</t>
   </si>
@@ -49,9 +43,6 @@
   </si>
   <si>
     <t>Hvad er en (klasse-)metode?</t>
-  </si>
-  <si>
-    <t>Bonusspørgsmål: Hvad er en statisk metode?</t>
   </si>
   <si>
     <t>Hvad er en klasse?</t>
@@ -129,8 +120,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -490,7 +481,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -548,7 +539,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -600,7 +591,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -794,57 +785,57 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A4E83E-10D6-46D9-83B7-4BBDF97E772E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="77.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="77.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="0.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.5546875" style="1" customWidth="1"/>
-    <col min="3" max="6" width="23.6640625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="77.88671875" style="1"/>
+    <col min="1" max="1" width="0.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.5703125" style="1" customWidth="1"/>
+    <col min="3" max="6" width="23.7109375" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="77.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="21" customHeight="1" thickBot="1">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1">
+      <c r="B2" s="23" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="23" t="s">
-        <v>23</v>
       </c>
       <c r="C2" s="24"/>
       <c r="D2" s="24"/>
       <c r="E2" s="24"/>
       <c r="F2" s="25"/>
     </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75">
       <c r="A3" s="2"/>
       <c r="B3" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75">
       <c r="A4" s="3"/>
       <c r="B4" s="12" t="s">
         <v>0</v>
@@ -854,7 +845,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="15.75">
       <c r="A5" s="3"/>
       <c r="B5" s="14" t="s">
         <v>1</v>
@@ -864,7 +855,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="15.75">
       <c r="A6" s="3"/>
       <c r="B6" s="14" t="s">
         <v>5</v>
@@ -874,7 +865,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="15.75">
       <c r="A7" s="3"/>
       <c r="B7" s="26" t="s">
         <v>4</v>
@@ -884,7 +875,7 @@
       <c r="E7" s="27"/>
       <c r="F7" s="28"/>
     </row>
-    <row r="8" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="16.5" thickBot="1">
       <c r="A8" s="3"/>
       <c r="B8" s="16" t="s">
         <v>2</v>
@@ -894,47 +885,47 @@
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="15.75">
       <c r="A9" s="2"/>
       <c r="B9" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="15.75">
       <c r="A10" s="4"/>
       <c r="B10" s="19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.75">
       <c r="A11" s="4"/>
       <c r="B11" s="20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="15.75">
       <c r="A12" s="4"/>
       <c r="B12" s="21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15.75">
       <c r="A13" s="4"/>
       <c r="B13" s="20" t="s">
         <v>6</v>
@@ -944,7 +935,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="15.75">
       <c r="A14" s="4"/>
       <c r="B14" s="20" t="s">
         <v>7</v>
@@ -954,147 +945,147 @@
       <c r="E14" s="8"/>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="15.75">
       <c r="A15" s="4"/>
       <c r="B15" s="20" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75">
       <c r="A16" s="4"/>
       <c r="B16" s="20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
       <c r="F16" s="15"/>
     </row>
-    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="15.75">
       <c r="A17" s="4"/>
       <c r="B17" s="20" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="15.75">
       <c r="A18" s="4"/>
       <c r="B18" s="20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
       <c r="F18" s="15"/>
     </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="15.75">
       <c r="A19" s="4"/>
       <c r="B19" s="20" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
       <c r="F19" s="15"/>
     </row>
-    <row r="20" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="16.5" thickBot="1">
       <c r="A20" s="4"/>
       <c r="B20" s="20" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="15"/>
     </row>
-    <row r="21" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
-      <c r="B21" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="18"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="9" t="s">
+    <row r="21" spans="1:6" ht="15.75">
+      <c r="A21" s="2"/>
+      <c r="B21" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="11"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75">
+      <c r="A22" s="3"/>
+      <c r="B22" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75">
       <c r="A23" s="3"/>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="15"/>
+    </row>
+    <row r="24" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A24" s="3"/>
+      <c r="B24" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="18"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75">
+      <c r="A25" s="2"/>
+      <c r="B25" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75">
+      <c r="A26" s="4"/>
+      <c r="B26" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="13"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="15"/>
-    </row>
-    <row r="25" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="18"/>
-    </row>
-    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="13"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75">
       <c r="A27" s="4"/>
-      <c r="B27" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="13"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="15"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75">
       <c r="A28" s="4"/>
       <c r="B28" s="20" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="15"/>
     </row>
-    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75">
       <c r="A29" s="4"/>
       <c r="B29" s="20" t="s">
         <v>18</v>
@@ -1104,65 +1095,55 @@
       <c r="E29" s="8"/>
       <c r="F29" s="15"/>
     </row>
-    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="15.75">
       <c r="A30" s="4"/>
       <c r="B30" s="20" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="15"/>
     </row>
-    <row r="31" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="16.5" thickBot="1">
       <c r="A31" s="4"/>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="15"/>
-    </row>
-    <row r="32" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="4"/>
-      <c r="B32" s="22" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="18"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75">
+      <c r="A32" s="2"/>
+      <c r="B32" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="11"/>
+    </row>
+    <row r="33" spans="1:6" ht="15.75">
+      <c r="A33" s="5"/>
+      <c r="B33" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="18"/>
-    </row>
-    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="11"/>
-    </row>
-    <row r="34" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A34" s="5"/>
-      <c r="B34" s="19" t="s">
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A34" s="4"/>
+      <c r="B34" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="13"/>
-    </row>
-    <row r="35" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="4"/>
-      <c r="B35" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="18"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.38" right="0.43" top="0.34" bottom="0.34" header="0.3" footer="0.3"/>

--- a/40_prepare_exam/S3650_Checklist_Eksamen.xlsx
+++ b/40_prepare_exam/S3650_Checklist_Eksamen.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20367"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ulsc\OneDrive - AspIT\Uli\Python\AspIT_Python\40_prepare_exam\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_95568346DF67E5EB8120FF3C72B4EAD97BB1BBCB" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{AEA6D309-4C2B-420D-90D7-B43D04E33CC9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S2" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="125725" calcOnSave="0" concurrentCalc="0"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -120,8 +126,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -481,7 +487,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -785,38 +791,38 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="77.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="77.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="47.5703125" style="1" customWidth="1"/>
-    <col min="3" max="6" width="23.7109375" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="77.85546875" style="1"/>
+    <col min="1" max="1" width="0.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="47.5546875" style="1" customWidth="1"/>
+    <col min="3" max="6" width="23.6640625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="77.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" customHeight="1" thickBot="1">
+    <row r="1" spans="1:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" thickBot="1">
+    <row r="2" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="23" t="s">
         <v>22</v>
       </c>
@@ -825,7 +831,7 @@
       <c r="E2" s="24"/>
       <c r="F2" s="25"/>
     </row>
-    <row r="3" spans="1:6" ht="15.75">
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="2"/>
       <c r="B3" s="9" t="s">
         <v>30</v>
@@ -835,7 +841,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" spans="1:6" ht="15.75">
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="12" t="s">
         <v>0</v>
@@ -845,7 +851,7 @@
       <c r="E4" s="7"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:6" ht="15.75">
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="14" t="s">
         <v>1</v>
@@ -855,7 +861,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="15"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75">
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="14" t="s">
         <v>5</v>
@@ -865,7 +871,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="15"/>
     </row>
-    <row r="7" spans="1:6" ht="15.75">
+    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="26" t="s">
         <v>4</v>
@@ -875,7 +881,7 @@
       <c r="E7" s="27"/>
       <c r="F7" s="28"/>
     </row>
-    <row r="8" spans="1:6" ht="16.5" thickBot="1">
+    <row r="8" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" s="16" t="s">
         <v>2</v>
@@ -885,7 +891,7 @@
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
     </row>
-    <row r="9" spans="1:6" ht="15.75">
+    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="9" t="s">
         <v>29</v>
@@ -895,7 +901,7 @@
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:6" ht="15.75">
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="19" t="s">
         <v>8</v>
@@ -905,7 +911,7 @@
       <c r="E10" s="7"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6" ht="15.75">
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="20" t="s">
         <v>9</v>
@@ -915,7 +921,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="15"/>
     </row>
-    <row r="12" spans="1:6" ht="15.75">
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="21" t="s">
         <v>10</v>
@@ -925,7 +931,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="15"/>
     </row>
-    <row r="13" spans="1:6" ht="15.75">
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="B13" s="20" t="s">
         <v>6</v>
@@ -935,7 +941,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="15"/>
     </row>
-    <row r="14" spans="1:6" ht="15.75">
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="20" t="s">
         <v>7</v>
@@ -945,7 +951,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="15"/>
     </row>
-    <row r="15" spans="1:6" ht="15.75">
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="20" t="s">
         <v>23</v>
@@ -955,7 +961,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="15"/>
     </row>
-    <row r="16" spans="1:6" ht="15.75">
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="20" t="s">
         <v>28</v>
@@ -965,7 +971,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="15"/>
     </row>
-    <row r="17" spans="1:6" ht="15.75">
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="B17" s="20" t="s">
         <v>14</v>
@@ -975,7 +981,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="15"/>
     </row>
-    <row r="18" spans="1:6" ht="15.75">
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="20" t="s">
         <v>13</v>
@@ -985,7 +991,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="15"/>
     </row>
-    <row r="19" spans="1:6" ht="15.75">
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="20" t="s">
         <v>11</v>
@@ -995,7 +1001,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="15"/>
     </row>
-    <row r="20" spans="1:6" ht="16.5" thickBot="1">
+    <row r="20" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="4"/>
       <c r="B20" s="20" t="s">
         <v>12</v>
@@ -1005,7 +1011,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="15"/>
     </row>
-    <row r="21" spans="1:6" ht="15.75">
+    <row r="21" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="9" t="s">
         <v>3</v>
@@ -1015,7 +1021,7 @@
       <c r="E21" s="10"/>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75">
+    <row r="22" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="19" t="s">
         <v>15</v>
@@ -1025,7 +1031,7 @@
       <c r="E22" s="7"/>
       <c r="F22" s="13"/>
     </row>
-    <row r="23" spans="1:6" ht="15.75">
+    <row r="23" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="20" t="s">
         <v>19</v>
@@ -1035,7 +1041,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="15"/>
     </row>
-    <row r="24" spans="1:6" ht="16.5" thickBot="1">
+    <row r="24" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="3"/>
       <c r="B24" s="22" t="s">
         <v>20</v>
@@ -1045,7 +1051,7 @@
       <c r="E24" s="17"/>
       <c r="F24" s="18"/>
     </row>
-    <row r="25" spans="1:6" ht="15.75">
+    <row r="25" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="2"/>
       <c r="B25" s="9" t="s">
         <v>0</v>
@@ -1055,7 +1061,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:6" ht="15.75">
+    <row r="26" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="19" t="s">
         <v>16</v>
@@ -1065,7 +1071,7 @@
       <c r="E26" s="7"/>
       <c r="F26" s="13"/>
     </row>
-    <row r="27" spans="1:6" ht="15.75">
+    <row r="27" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="B27" s="20" t="s">
         <v>31</v>
@@ -1075,7 +1081,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="15"/>
     </row>
-    <row r="28" spans="1:6" ht="15.75">
+    <row r="28" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="20" t="s">
         <v>17</v>
@@ -1085,7 +1091,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="15"/>
     </row>
-    <row r="29" spans="1:6" ht="15.75">
+    <row r="29" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="B29" s="20" t="s">
         <v>18</v>
@@ -1095,7 +1101,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="15"/>
     </row>
-    <row r="30" spans="1:6" ht="15.75">
+    <row r="30" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="20" t="s">
         <v>24</v>
@@ -1105,7 +1111,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="15"/>
     </row>
-    <row r="31" spans="1:6" ht="16.5" thickBot="1">
+    <row r="31" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="4"/>
       <c r="B31" s="22" t="s">
         <v>25</v>
@@ -1115,7 +1121,7 @@
       <c r="E31" s="17"/>
       <c r="F31" s="18"/>
     </row>
-    <row r="32" spans="1:6" ht="15.75">
+    <row r="32" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="9" t="s">
         <v>2</v>
@@ -1125,7 +1131,7 @@
       <c r="E32" s="10"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="1:6" ht="15.75">
+    <row r="33" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="19" t="s">
         <v>26</v>
@@ -1135,7 +1141,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="13"/>
     </row>
-    <row r="34" spans="1:6" ht="16.5" thickBot="1">
+    <row r="34" spans="1:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="4"/>
       <c r="B34" s="22" t="s">
         <v>27</v>
